--- a/data/trans_bre/IP18A01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP18A01-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 12,58</t>
+          <t>-4,25; 11,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 8,08</t>
+          <t>-9,2; 7,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 5,23</t>
+          <t>-10,04; 5,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 46,05</t>
+          <t>-8,35; 46,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 381,13</t>
+          <t>-41,81; 292,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,06; 129,25</t>
+          <t>-58,08; 124,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-85,18; 192,21</t>
+          <t>-88,55; 215,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 2,26</t>
+          <t>-4,03; 2,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 2,44</t>
+          <t>-4,33; 2,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 6,52</t>
+          <t>-0,13; 6,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 10,4</t>
+          <t>-1,46; 10,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,14; 35,3</t>
+          <t>-40,73; 36,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,37; 27,89</t>
+          <t>-36,18; 28,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 100,81</t>
+          <t>-2,36; 94,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 611,93</t>
+          <t>-39,61; 607,51</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 6,1</t>
+          <t>-5,32; 6,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 7,65</t>
+          <t>-3,77; 7,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -0,76</t>
+          <t>-10,76; -0,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 11,2</t>
+          <t>-9,01; 11,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,2; 86,94</t>
+          <t>-40,79; 88,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 114,09</t>
+          <t>-32,71; 119,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-73,28; 1,88</t>
+          <t>-74,84; -0,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,87</t>
+          <t>-2,59; 2,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,29</t>
+          <t>-2,92; 2,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 3,22</t>
+          <t>-1,95; 3,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 8,65</t>
+          <t>-1,41; 8,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 40,34</t>
+          <t>-27,25; 37,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 26,2</t>
+          <t>-24,98; 26,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 44,54</t>
+          <t>-19,99; 45,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,07; 367,24</t>
+          <t>-29,4; 358,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP18A01-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>178,0%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 12,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 8,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,12; 5,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 49,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,09; 333,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,07; 133,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,98</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>-10,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-25,87%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>185,31%</t>
+          <t>91,54%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 11,94</t>
+          <t>-3,96; 2,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 7,67</t>
+          <t>-4,31; 2,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 5,21</t>
+          <t>0,2; 6,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 46,1</t>
+          <t>-1,78; 9,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,81; 292,52</t>
+          <t>-41,99; 35,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,08; 124,49</t>
+          <t>-36,24; 30,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-88,55; 215,77</t>
+          <t>0,58; 102,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,5; 559,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>-47,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>7,7%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 2,29</t>
+          <t>-5,45; 6,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 2,4</t>
+          <t>-4,24; 7,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 6,2</t>
+          <t>-10,08; -0,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 10,81</t>
+          <t>-8,75; 11,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 36,57</t>
+          <t>-42,4; 87,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 28,7</t>
+          <t>-34,95; 108,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 94,45</t>
+          <t>-73,24; -3,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,61; 607,51</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,35</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-47,03%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>75,78%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 6,02</t>
+          <t>-2,35; 2,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 7,49</t>
+          <t>-2,87; 2,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,76; -0,28</t>
+          <t>-1,71; 3,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 11,93</t>
+          <t>-1,5; 9,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,79; 88,73</t>
+          <t>-24,5; 38,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 119,6</t>
+          <t>-24,7; 31,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-74,84; -0,14</t>
+          <t>-17,06; 45,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,52; 420,35</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,14</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-1,99%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>7,48%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>75,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 2,62</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 2,28</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,95; 3,32</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,41; 8,89</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-27,25; 37,69</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-24,98; 26,09</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-19,99; 45,87</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-29,4; 358,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
